--- a/PI.Automation.Xporter.ReportGenerator/test.xlsx
+++ b/PI.Automation.Xporter.ReportGenerator/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E3C3C4-2CC1-4153-A921-740F9086A9B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A938659B-C3A6-4CDE-8EF0-81300DCCDC6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,7 +870,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,11 +1218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76DF1F3-B512-4569-9AC1-180EE8A033EE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -2096,13 +2095,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H33" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1.1.0.2-Central Europe Standard Time-Chrome"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
